--- a/data/intermediate/cs_w1_10/Test Probabilities.xlsx
+++ b/data/intermediate/cs_w1_10/Test Probabilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>SentenceID</t>
   </si>
@@ -55,16 +55,25 @@
     <t>Neutral-Senti</t>
   </si>
   <si>
-    <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
-  </si>
-  <si>
-    <t>the performance be absolutely worth seeing.</t>
+    <t>fan would have a hard time sit through this one .</t>
+  </si>
+  <si>
+    <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
+  </si>
+  <si>
+    <t>i still like moonlight mile better judgment be damn .</t>
+  </si>
+  <si>
+    <t>a bilingual charmer just like the woman who inspire it be worth see .</t>
   </si>
   <si>
     <t>a welcome relief from baseball movie that try too hard to be mythic this one sweet and modest ultimately win story so i like it.</t>
   </si>
   <si>
     <t>Negative</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
   <si>
     <t>Positive</t>
@@ -431,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -498,28 +507,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -527,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -536,34 +545,34 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="M3">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>15.125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -571,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -586,27 +595,115 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M4">
+        <v>0.25</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>0.3125</v>
+      </c>
+      <c r="M5">
+        <v>0.125</v>
+      </c>
+      <c r="N5">
+        <v>6.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
         <v>0.2708333333333333</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>0.35</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>12.625</v>
       </c>
     </row>
